--- a/docs/IcoSem3ProgramInPerson.xlsx
+++ b/docs/IcoSem3ProgramInPerson.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ian/Documents/GitHub/icosem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E356A3-BDB6-1347-8A8C-3E44CF8A5D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094E3A15-77F8-7441-9B78-4761A3C4BA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1460" yWindow="1340" windowWidth="27700" windowHeight="16880" xr2:uid="{114D66BA-0657-F448-B8CA-BD0ADEB78A7F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,6 +78,14 @@
   </si>
   <si>
     <t>Amy Pei-jung Lee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iconic vowel alternations in Korean ideophones</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Natalie Côté </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -468,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA919A9-B8DB-2A43-BF75-3A258FB5D295}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -533,6 +541,17 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="B7" t="s">
         <v>4</v>
       </c>
     </row>
